--- a/All_Migration_Mapping_Sheets/Src_tables description.xlsx
+++ b/All_Migration_Mapping_Sheets/Src_tables description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Excel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\cowpay_migration\All_Migration_Mapping_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="orders table" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="withdrow requests" sheetId="3" r:id="rId3"/>
     <sheet name="cash out" sheetId="4" r:id="rId4"/>
     <sheet name="transactions table" sheetId="5" r:id="rId5"/>
+    <sheet name="BankAccount" sheetId="6" r:id="rId6"/>
+    <sheet name="Mobile Wallets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="239">
   <si>
     <t>id </t>
   </si>
@@ -652,6 +654,99 @@
   </si>
   <si>
     <t>contain one val from this values 'PAYATFAWRY','CASHONDELIVERY','CARD','WALLET','INSTALLMENT','MEEZA'</t>
+  </si>
+  <si>
+    <t>`id`</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>unsigned</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t>`user_id`</t>
+  </si>
+  <si>
+    <t>NULL,</t>
+  </si>
+  <si>
+    <t>`type`</t>
+  </si>
+  <si>
+    <t>enum('WITHDRAWAL','CASHOUT')</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>`bank_name`</t>
+  </si>
+  <si>
+    <t>varchar(191)</t>
+  </si>
+  <si>
+    <t>`bank_address`</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>`number`</t>
+  </si>
+  <si>
+    <t>`name`</t>
+  </si>
+  <si>
+    <t>`holder_name`</t>
+  </si>
+  <si>
+    <t>`swift_code`</t>
+  </si>
+  <si>
+    <t>`created_at`</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>`updated_at`</t>
+  </si>
+  <si>
+    <t>`deleted_at`</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>bank_accounts</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>`mobile_number`</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>mobile_wallets</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +2068,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2195,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2317,4 +2412,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/All_Migration_Mapping_Sheets/Src_tables description.xlsx
+++ b/All_Migration_Mapping_Sheets/Src_tables description.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="orders table" sheetId="1" r:id="rId1"/>
     <sheet name="users table" sheetId="2" r:id="rId2"/>
-    <sheet name="withdrow requests" sheetId="3" r:id="rId3"/>
-    <sheet name="cash out" sheetId="4" r:id="rId4"/>
-    <sheet name="transactions table" sheetId="5" r:id="rId5"/>
-    <sheet name="BankAccount" sheetId="6" r:id="rId6"/>
-    <sheet name="Mobile Wallets" sheetId="7" r:id="rId7"/>
+    <sheet name="Customers" sheetId="8" r:id="rId3"/>
+    <sheet name="withdrow requests" sheetId="3" r:id="rId4"/>
+    <sheet name="cash out" sheetId="4" r:id="rId5"/>
+    <sheet name="transactions table" sheetId="5" r:id="rId6"/>
+    <sheet name="BankAccount" sheetId="6" r:id="rId7"/>
+    <sheet name="Mobile Wallets" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="249">
   <si>
     <t>id </t>
   </si>
@@ -747,6 +748,36 @@
   </si>
   <si>
     <t>mobile_wallets</t>
+  </si>
+  <si>
+    <t>`merchant_id`</t>
+  </si>
+  <si>
+    <t>`email`</t>
+  </si>
+  <si>
+    <t>`mobile`</t>
+  </si>
+  <si>
+    <t>`customer_merchant_profile_id`</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>`card_token`</t>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>`cvv`</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>`valu_load_number`</t>
   </si>
 </sst>
 </file>
@@ -1314,288 +1345,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" style="2" customWidth="1"/>
-    <col min="2" max="2" width="144.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47" style="2" customWidth="1"/>
+    <col min="3" max="3" width="144.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="2:3" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="2:3" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="2:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -2064,6 +2116,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2171,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2286,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2414,7 +2580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2663,12 +2829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/All_Migration_Mapping_Sheets/Src_tables description.xlsx
+++ b/All_Migration_Mapping_Sheets/Src_tables description.xlsx
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B40" s="31"/>
     </row>
-    <row r="41" spans="1:2" s="22" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" s="22" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>101</v>
       </c>
